--- a/UtilitiesReturns/Data/Config.xlsx
+++ b/UtilitiesReturns/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\UtilitiesReturns - Copy\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\UtilitiesReturns\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DFDEC2-1222-4EFC-A92F-031EA00612A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7233BDFF-6282-4101-9719-F16AA2AD2286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>System exception.</t>
   </si>
   <si>
-    <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
     <t>OrchestratorQueueName</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -118,10 +115,13 @@
     <t>Completed Folder</t>
   </si>
   <si>
-    <t>In Progress Folder</t>
+    <t>Returns Folder</t>
   </si>
   <si>
-    <t>Returns Folder</t>
+    <t>In-Progress Folder</t>
+  </si>
+  <si>
+    <t>Workpackage Name</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:Y997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D18"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -537,28 +537,28 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:25" ht="14.5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1"/>
@@ -1563,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y987"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1666,25 +1666,25 @@
     <row r="11" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:25" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:25" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2679,7 +2679,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2726,18 +2726,18 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -2750,34 +2750,34 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/UtilitiesReturns/Data/Config.xlsx
+++ b/UtilitiesReturns/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\UtilitiesReturns\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EA-FCRM-Utilities-Returns\UtilitiesReturns\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7233BDFF-6282-4101-9719-F16AA2AD2286}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A446DE0-AB6C-4278-9C36-F6E037EE1E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Local Log File Path</t>
   </si>
   <si>
-    <t>C:\Users\M1006990\Downloads\UtilitiesReturns\Documentation\</t>
-  </si>
-  <si>
     <t>Orchestrator Folder Path</t>
   </si>
   <si>
@@ -122,6 +119,21 @@
   </si>
   <si>
     <t>Workpackage Name</t>
+  </si>
+  <si>
+    <t>Email Subject</t>
+  </si>
+  <si>
+    <t>Email Body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST:  </t>
+  </si>
+  <si>
+    <t>C:\Users\{0}\Downloads\EA-FCRM-Utilities-Returns\UtilitiesReturns\Documentation\Logs\EA-Utilities-{1}.xlsx</t>
   </si>
 </sst>
 </file>
@@ -173,10 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -540,25 +555,25 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:25" ht="14.5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:25" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1"/>
@@ -1563,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y987"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1669,38 +1684,52 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:25" ht="14.25" customHeight="1">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="b">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="b">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2726,58 +2755,58 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/UtilitiesReturns/Data/Config.xlsx
+++ b/UtilitiesReturns/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1006990\Downloads\EA-FCRM-Utilities-Returns\UtilitiesReturns\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A446DE0-AB6C-4278-9C36-F6E037EE1E6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624E7DE2-61E1-4411-ACBC-E2E02DFD96D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>kai.lumber@defra.gov.uk</t>
-  </si>
-  <si>
     <t>Pausepoint 1</t>
   </si>
   <si>
@@ -135,12 +132,15 @@
   <si>
     <t>C:\Users\{0}\Downloads\EA-FCRM-Utilities-Returns\UtilitiesReturns\Documentation\Logs\EA-Utilities-{1}.xlsx</t>
   </si>
+  <si>
+    <t>servicesearch.request@environment-agency.gov.uk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -164,6 +164,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF464E55"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,13 +191,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +568,10 @@
     <row r="3" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:25" ht="14.5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.25" customHeight="1"/>
@@ -1579,13 +1586,13 @@
   <dimension ref="A1:Y987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" customWidth="1"/>
+    <col min="2" max="2" width="95.6328125" customWidth="1"/>
     <col min="3" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1684,7 +1691,7 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1"/>
@@ -1692,14 +1699,14 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:25" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -1707,7 +1714,7 @@
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -1716,18 +1723,18 @@
     <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2700,6 +2707,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2755,34 +2763,34 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -2795,18 +2803,18 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
